--- a/similarities/split_global/harmonic_similarity_timestamps_112.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_112.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,519 +484,559 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>isophonics_265</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['D', 'A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C', 'G:7', 'C']]</t>
+          <t>['G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
+          <t>('0:01:42.174263', '0:01:55.003287')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:21.170000', '0:00:25.690000')]</t>
+          <t>('0:02:01.080000', '0:02:02.360000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=102.174263</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=21.17']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=121.08</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>isophonics_274</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/F#', 'A:min/E']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Bb', 'F:min']]</t>
+          <t>['Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:09', '0:01:11.420000')]</t>
+          <t>('0:01:03.600000', '0:01:06.040000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:08.624535', '0:00:20.350612')]</t>
+          <t>('0:00:03.129454', '0:00:05.172811')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=69.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-282#t=8.624535']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=3.129454</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>schubert-winterreise_117</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G']]</t>
+          <t>['C:maj', 'G:maj', 'D:7']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['Db:maj', 'Ab/3', 'Eb:7']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
+          <t>('0:00:06.160000', '0:00:11.700000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+          <t>('0:00:13.159000', '0:00:16.555000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=13.079206']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=6.16</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=13.159</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>isophonics_108</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:11.560000', '0:01:24.380000')]</t>
+          <t>('0:00:19.000294', '0:00:29.309954')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:57.500000', '0:00:59.680000')]</t>
+          <t>('0:00:46.560000', '0:00:49.080000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=71.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=19.000294</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=57.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=46.56</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_213</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>schubert-winterreise_71</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>['C:min', 'G:7/D', 'C:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:02:03.220000', '0:02:06.880000')]</t>
+          <t>('0:00:42.940000', '0:00:51.080000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:22.020589', '0:00:24.598004')]</t>
+          <t>('0:00:00.360000', '0:00:07.140000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=42.94</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=0.36</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>schubert-winterreise_64</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['A:7', 'D:min', 'D:min/A']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>['C:7', 'F:min/C', 'F:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:08.900000')]</t>
+          <t>('0:00:27.080000', '0:00:47.900000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:02.020000', '0:01:11.860000')]</t>
+          <t>('0:00:36.280000', '0:00:38')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=27.08</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=62.02']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=36.28</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['C:7', 'F:min', 'C:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:7', 'C:min/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:04:14.260000', '0:04:20.200000')]</t>
+          <t>('0:00:13.900000', '0:00:18.820000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:14.300000', '0:00:15.210000')]</t>
+          <t>('0:00:32.660000', '0:00:35.460000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=254.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=13.9</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=32.66</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_7</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_83</t>
+          <t>schubert-winterreise_68</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb'], ['F:min7', 'Bb:7', 'Eb']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:7', 'G'], ['A:min7', 'D:7', 'G']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:27.250000', '0:00:30.810000'), ('0:00:08.350000', '0:00:11.880000')]</t>
+          <t>('0:01:15.560000', '0:01:35.680000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:02.900000', '0:00:11.630000'), ('0:00:14.530000', '0:00:17.430000')]</t>
+          <t>('0:00:33', '0:00:48.220000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=27.25', 'https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=8.35']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=75.56</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=2.9', 'https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=14.53']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=33.0</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_90</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'Bb']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:00.761383', '0:01:09.294716')]</t>
+          <t>('0:00:58.080000', '0:01:05.660000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:18.120000', '0:00:24.540000')]</t>
+          <t>('0:02:34.760000', '0:02:39.840000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=60.761383']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=18.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>isophonics_43</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:42.360000', '0:00:50.360000')]</t>
+          <t>('0:00:58.080000', '0:01:05.660000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:00.800000', '0:00:02.880000')]</t>
+          <t>('0:00:03.884104', '0:00:23.632675')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=42.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=0.8']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=3.884104</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>schubert-winterreise_38</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D#:min/A#', 'A#', 'D#:min/A#']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:15.800000', '0:01:19.600000')]</t>
+          <t>('0:00:49.280000', '0:00:53.940000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:28.009637', '0:00:33.826235')]</t>
+          <t>('0:01:20.220000', '0:01:27.220000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=49.28</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=28.009637']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=80.22</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1006,180 +1046,184 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:09.140000', '0:00:16.920000'), ('0:00:19.480000', '0:00:25.860000')]</t>
+          <t>('0:00:08.700000', '0:00:32.100000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:12.560000', '0:00:19.540000'), ('0:00:23.040000', '0:00:28.920000')]</t>
+          <t>('0:04:14.260000', '0:04:20.200000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=9.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=19.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=8.7</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=12.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=23.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=254.26</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>schubert-winterreise_137</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_38</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['A#:7', 'D#:min', 'G#:min/B']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:13.420000', '0:00:19.500000')]</t>
+          <t>('0:00:07.700000', '0:00:19.980000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:21.420000', '0:01:30.040000')]</t>
+          <t>('0:00:25.260000', '0:00:34.280000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=13.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=7.7</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=81.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=25.26</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>jaah_77</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A/3']]</t>
+          <t>['C', 'G:7', 'C', 'D:7']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C/G', 'G:7', 'C', 'D:7/C']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:13.527000', '0:00:17.058000')]</t>
+          <t>('0:00:21.170000', '0:00:27.940000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:04:14.260000', '0:04:22.720000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=13.527']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=21.17</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=254.26</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['A:min', 'E:maj', 'A:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'A:min7'], ['G/3', 'C', 'G']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:06.020000', '0:01:08.980000'), ('0:00:18.120000', '0:00:24.540000')]</t>
+          <t>('0:00:13.500000', '0:00:21.900000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:14.565283', '0:00:18.936988'), ('0:00:13.079206', '0:00:17.500916')]</t>
+          <t>('0:00:02.660000', '0:00:07.980000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=66.02', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=18.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=14.565283', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=13.079206']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.66</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
